--- a/01-Sesion/Thesaurus.xlsx
+++ b/01-Sesion/Thesaurus.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
   <si>
     <t>N°</t>
   </si>
@@ -186,7 +186,25 @@
     <t>https://n9.cl/ahapn</t>
   </si>
   <si>
-    <t>Patrones de Arquitectura and "Arquitectura de Software"</t>
+    <t xml:space="preserve">https://n9.cl/aob3a </t>
+  </si>
+  <si>
+    <t>"Patrones de Arquitectura" and "Arquitectura de Software"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://n9.cl/d6jy6h </t>
+  </si>
+  <si>
+    <t>https://n9.cl/meir0</t>
+  </si>
+  <si>
+    <t>Especificaciònde laarquitectura de software</t>
+  </si>
+  <si>
+    <t>INGENIERÍA DE SOFTWARE Y COMPUTACIÓN EN LA NUBE. CONCEPTOS  BÁSICOS  QUE  DEBEN  SER  ENSEÑADOS  EN  EL CURSO    DE    INGENIERÍA    DE    SOFTWARE    I,     SOFTWARE ENGINEERING AND CLOUD COMPUTING BASIC</t>
+  </si>
+  <si>
+    <t>Distinguiendo entre SaaS y SOA</t>
   </si>
 </sst>
 </file>
@@ -504,32 +522,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -735,6 +727,32 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -867,15 +885,15 @@
   <autoFilter ref="A1:J31"/>
   <tableColumns count="10">
     <tableColumn id="1" name="N°" dataDxfId="9"/>
-    <tableColumn id="2" name="Término o Frase" dataDxfId="0"/>
-    <tableColumn id="3" name="Fórmula" dataDxfId="8"/>
-    <tableColumn id="4" name="Fecha Busqueda" dataDxfId="7"/>
-    <tableColumn id="5" name="Url" dataDxfId="6"/>
-    <tableColumn id="6" name="Base de Datos" dataDxfId="5"/>
-    <tableColumn id="7" name="Nombre del Artículo" dataDxfId="4"/>
-    <tableColumn id="11" name="Fecha Articulo" dataDxfId="3"/>
-    <tableColumn id="8" name="Cant Artículos" dataDxfId="2"/>
-    <tableColumn id="9" name="Tipo" dataDxfId="1"/>
+    <tableColumn id="2" name="Término o Frase" dataDxfId="8"/>
+    <tableColumn id="3" name="Fórmula" dataDxfId="7"/>
+    <tableColumn id="4" name="Fecha Busqueda" dataDxfId="6"/>
+    <tableColumn id="5" name="Url" dataDxfId="5"/>
+    <tableColumn id="6" name="Base de Datos" dataDxfId="4"/>
+    <tableColumn id="7" name="Nombre del Artículo" dataDxfId="3"/>
+    <tableColumn id="11" name="Fecha Articulo" dataDxfId="2"/>
+    <tableColumn id="8" name="Cant Artículos" dataDxfId="1"/>
+    <tableColumn id="9" name="Tipo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1146,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1574,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="22">
         <v>45607</v>
@@ -1580,69 +1598,133 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="D14" s="22">
         <v>45608</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E14" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="17">
+        <v>2023</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1260</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D15" s="22">
         <v>45608</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E15" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="17">
+        <v>2016</v>
+      </c>
+      <c r="I15" s="9">
+        <v>29</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D16" s="22">
         <v>45608</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="25">
+        <v>45146</v>
+      </c>
+      <c r="I16" s="9">
+        <v>29</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="B17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D17" s="22">
         <v>45608</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="11"/>
+      <c r="E17" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="17">
+        <v>2011</v>
+      </c>
+      <c r="I17" s="9">
+        <v>29</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1881,11 +1963,15 @@
     <hyperlink ref="E10" r:id="rId9"/>
     <hyperlink ref="E11" r:id="rId10"/>
     <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E14" r:id="rId12"/>
+    <hyperlink ref="E15" r:id="rId13"/>
+    <hyperlink ref="E16" r:id="rId14"/>
+    <hyperlink ref="E17" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/01-Sesion/Thesaurus.xlsx
+++ b/01-Sesion/Thesaurus.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>N°</t>
   </si>
@@ -1164,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1694,37 +1694,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="22">
-        <v>45608</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="17">
-        <v>2011</v>
-      </c>
-      <c r="I17" s="9">
-        <v>29</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1966,12 +1948,11 @@
     <hyperlink ref="E14" r:id="rId12"/>
     <hyperlink ref="E15" r:id="rId13"/>
     <hyperlink ref="E16" r:id="rId14"/>
-    <hyperlink ref="E17" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/01-Sesion/Thesaurus.xlsx
+++ b/01-Sesion/Thesaurus.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="107">
   <si>
     <t>N°</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Arquitectura de Software</t>
-  </si>
-  <si>
-    <t>Ana Arquitectura para una Herramienta de Patrones de Diseño</t>
   </si>
   <si>
     <t>Fecha Busqueda</t>
@@ -183,9 +180,6 @@
 del Arte </t>
   </si>
   <si>
-    <t>https://n9.cl/ahapn</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://n9.cl/aob3a </t>
   </si>
   <si>
@@ -205,13 +199,168 @@
   </si>
   <si>
     <t>Distinguiendo entre SaaS y SOA</t>
+  </si>
+  <si>
+    <t>Buenas prácticas en la construcción de software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://n9.cl/ahapn </t>
+  </si>
+  <si>
+    <t>"software architecture" AND "design patterns" AND "article"</t>
+  </si>
+  <si>
+    <t>https://n9.cl/w2vf4</t>
+  </si>
+  <si>
+    <t>El impacto de los patrones de diseño en la calidad del software: una revisión sistemática de la literatura</t>
+  </si>
+  <si>
+    <t>"software architecture" AND "agile" AND "patterns" AND "case study"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://n9.cl/ty5z9 </t>
+  </si>
+  <si>
+    <t>Un estudio de mapeo sistemático sobre la combinación de arquitectura de software y desarrollo ágil</t>
+  </si>
+  <si>
+    <t>"clean architecture" AND "software design patterns" AND "article"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://n9.cl/pupxw3 </t>
+  </si>
+  <si>
+    <t>Panorama de la arquitectura y patrones de diseño para sistemas IoT</t>
+  </si>
+  <si>
+    <t>"modern software architecture" AND "design patterns" AND "article"</t>
+  </si>
+  <si>
+    <t>https://n9.cl/fgzbe</t>
+  </si>
+  <si>
+    <t>Documentación de la arquitectura de software desde una perspectiva de gestión del conocimiento: representación del diseño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://n9.cl/onxl9 </t>
+  </si>
+  <si>
+    <t>Marcos de diseño avanzados para aplicaciones modernas y escalables: enfoques estratégicos para crear arquitecturas modulares, resilientes y de alto rendimiento en sistemas distribuidos</t>
+  </si>
+  <si>
+    <t>"AI software architecture" AND "design patterns" AND "article"</t>
+  </si>
+  <si>
+    <t>https://n9.cl/4r1uu</t>
+  </si>
+  <si>
+    <t>Arquitectura de software para sistemas de computación cuántica: una revisión sistemática</t>
+  </si>
+  <si>
+    <t>Julio-2023</t>
+  </si>
+  <si>
+    <t>"arquitectura de software" y "patrones de diseño orientado a objetos"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://n9.cl/5j5vg </t>
+  </si>
+  <si>
+    <t>Modelo para la ayuda a la toma de
+decisiones en la selección de patrones de desarrollo
+de software.</t>
+  </si>
+  <si>
+    <t>Mayo-2007</t>
+  </si>
+  <si>
+    <t>"arquitectura de software" y "mejores prácticas"</t>
+  </si>
+  <si>
+    <t>https://n9.cl/1q4o6</t>
+  </si>
+  <si>
+    <t>Enfoque de arquitectura de soluciones, mecanismo para reducir la brecha entre la arquitectura empresarial y la implementación de soluciones tecnológicas</t>
+  </si>
+  <si>
+    <t>Octubre-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://n9.cl/f237r </t>
+  </si>
+  <si>
+    <t>Estudio descriptivo de las prácticas de diseño y arquitectura de desarrollo de Software en las compañías Startups</t>
+  </si>
+  <si>
+    <t>Agosto-2017</t>
+  </si>
+  <si>
+    <t>"arquitectura de software" y "escalabilidad"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://n9.cl/6nckty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptación de un patrón de software en seguridad a
+la arquitectura de un Microservicio
+</t>
+  </si>
+  <si>
+    <t>Tesis de Maestría</t>
+  </si>
+  <si>
+    <t>"arquitectura de software" y "principios SOLID"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://n9.cl/mom8g </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metodologías ágiles de desarrollo aplicadas a la enseñanza de la programación</t>
+  </si>
+  <si>
+    <t>https://n9.cl/1t78u</t>
+  </si>
+  <si>
+    <t>Código Limpio: Cómo aprenderlo a través de un ejercicio práctico</t>
+  </si>
+  <si>
+    <t>Marzo-2023</t>
+  </si>
+  <si>
+    <t>"patrones de arquitectura" y "microservicios"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://n9.cl/5ug42 </t>
+  </si>
+  <si>
+    <t>Estudio de Métricas y Patrones de Seguridad en Microservicios</t>
+  </si>
+  <si>
+    <t>"arquitectura de software "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://n9.cl/vzvqm </t>
+  </si>
+  <si>
+    <t>Arquitectura de software, esquemas y servicios</t>
+  </si>
+  <si>
+    <t>Enero-2006</t>
+  </si>
+  <si>
+    <t>https://n9.cl/wvlmw</t>
+  </si>
+  <si>
+    <t>Documentando la arquitectura de software
+Principios básicos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,13 +421,6 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -294,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -402,23 +544,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -448,18 +579,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -495,21 +614,21 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="14">
     <dxf>
       <font>
         <strike val="0"/>
@@ -523,7 +642,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -534,6 +653,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -549,38 +670,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -611,7 +700,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -624,6 +713,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -639,7 +730,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -649,9 +740,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -667,7 +758,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -680,6 +771,37 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -695,7 +817,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -708,6 +830,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -723,7 +847,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -736,32 +860,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -784,7 +884,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -795,34 +895,17 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -832,7 +915,46 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -881,17 +1003,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:J31" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:J31" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:J31"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="N°" dataDxfId="9"/>
-    <tableColumn id="2" name="Término o Frase" dataDxfId="8"/>
-    <tableColumn id="3" name="Fórmula" dataDxfId="7"/>
-    <tableColumn id="4" name="Fecha Busqueda" dataDxfId="6"/>
-    <tableColumn id="5" name="Url" dataDxfId="5"/>
-    <tableColumn id="6" name="Base de Datos" dataDxfId="4"/>
-    <tableColumn id="7" name="Nombre del Artículo" dataDxfId="3"/>
-    <tableColumn id="11" name="Fecha Articulo" dataDxfId="2"/>
+    <tableColumn id="1" name="N°" dataDxfId="8"/>
+    <tableColumn id="2" name="Término o Frase" dataDxfId="7"/>
+    <tableColumn id="3" name="Fórmula" dataDxfId="6"/>
+    <tableColumn id="4" name="Fecha Busqueda" dataDxfId="5"/>
+    <tableColumn id="5" name="Url" dataDxfId="4" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="6" name="Base de Datos" dataDxfId="3"/>
+    <tableColumn id="7" name="Nombre del Artículo" dataDxfId="2"/>
+    <tableColumn id="11" name="Fecha Articulo" dataDxfId="9"/>
     <tableColumn id="8" name="Cant Artículos" dataDxfId="1"/>
     <tableColumn id="9" name="Tipo" dataDxfId="0"/>
   </tableColumns>
@@ -1164,20 +1286,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="16" customWidth="1"/>
     <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="16" customWidth="1"/>
     <col min="9" max="9" width="30.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="35.85546875" style="1" customWidth="1"/>
   </cols>
@@ -1186,14 +1308,14 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>11</v>
+      <c r="D1" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
@@ -1201,13 +1323,13 @@
       <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="7" t="s">
@@ -1218,741 +1340,996 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="22">
+      <c r="B2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="18">
         <v>45605</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="25">
+      <c r="E2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="21">
         <v>42947</v>
       </c>
       <c r="I2" s="10">
         <v>212</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>17</v>
+      <c r="J2" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="22">
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="18">
         <v>45605</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="17">
-        <v>2022</v>
-      </c>
-      <c r="I3" s="9">
-        <v>10200</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="E3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="18">
+        <v>36495</v>
+      </c>
+      <c r="I3" s="10">
+        <v>11900</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="22">
+      <c r="B4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="18">
         <v>45605</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>25</v>
+      <c r="E4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="13">
+        <v>2022</v>
       </c>
       <c r="I4" s="9">
-        <v>594000</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>10200</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="B5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="18">
         <v>45605</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="22">
-        <v>36495</v>
-      </c>
-      <c r="I5" s="10">
-        <v>12000</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>13</v>
+      <c r="E5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="9">
+        <v>594000</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="18">
+        <v>45606</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="22">
-        <v>45606</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="F6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="H6" s="13">
         <v>2001</v>
       </c>
       <c r="I6" s="9">
         <v>29</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>13</v>
+      <c r="J6" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="22">
+      <c r="B7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="18">
         <v>45606</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="E7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="17">
+      <c r="F7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="13">
         <v>2004</v>
       </c>
       <c r="I7" s="9">
         <v>1750</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>13</v>
+      <c r="J7" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="B8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="18">
         <v>45606</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="E8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="25">
+      <c r="F8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="21">
         <v>2023</v>
       </c>
       <c r="I8" s="9">
         <v>20500</v>
       </c>
-      <c r="J8" s="18" t="s">
-        <v>13</v>
+      <c r="J8" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="18">
+        <v>45606</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="22">
-        <v>45606</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>41</v>
+      <c r="H9" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="I9" s="9">
         <v>9280</v>
       </c>
-      <c r="J9" s="18" t="s">
-        <v>13</v>
+      <c r="J9" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="18">
+        <v>45607</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" s="22">
-        <v>45607</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>40</v>
       </c>
       <c r="I10" s="9">
         <v>9280</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>13</v>
+      <c r="J10" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="22">
+      <c r="B11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="18">
         <v>45607</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="17">
+      <c r="E11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="13">
         <v>2018</v>
       </c>
       <c r="I11" s="9">
         <v>555</v>
       </c>
-      <c r="J11" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="J11" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="18">
+        <v>45607</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="21">
+        <v>41977</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1260</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="18">
+        <v>45607</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="22">
-        <v>45607</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="F13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="17">
+      <c r="H13" s="13">
         <v>2009</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I13" s="9">
         <v>555</v>
       </c>
-      <c r="J12" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="22">
-        <v>45607</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="25">
-        <v>41977</v>
-      </c>
-      <c r="I13" s="9">
-        <v>1260</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>13</v>
+      <c r="J13" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="22">
+      <c r="B14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="18">
         <v>45608</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="17">
+      <c r="E14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="13">
         <v>2023</v>
       </c>
       <c r="I14" s="9">
         <v>1260</v>
       </c>
-      <c r="J14" s="18" t="s">
-        <v>17</v>
+      <c r="J14" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="22">
+      <c r="B15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="18">
         <v>45608</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="17">
+      <c r="E15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="13">
         <v>2016</v>
       </c>
       <c r="I15" s="9">
         <v>29</v>
       </c>
-      <c r="J15" s="18" t="s">
-        <v>13</v>
+      <c r="J15" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="22">
+      <c r="B16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="18">
         <v>45608</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="25">
+      <c r="E16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="21">
         <v>45146</v>
       </c>
       <c r="I16" s="9">
         <v>29</v>
       </c>
-      <c r="J16" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="J16" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="18">
+        <v>45608</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="21">
+        <v>43447</v>
+      </c>
+      <c r="I17" s="9">
+        <v>11000</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="22">
+      <c r="B18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="18">
         <v>45609</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="21">
+        <v>38718</v>
+      </c>
+      <c r="I18" s="9">
+        <v>11000</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="22">
+      <c r="B19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="18">
         <v>45609</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E19" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="21">
+        <v>44000</v>
+      </c>
+      <c r="I19" s="9">
+        <v>33</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="22">
+      <c r="B20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="18">
         <v>45609</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E20" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="21">
+        <v>39814</v>
+      </c>
+      <c r="I20" s="9">
+        <v>58</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="22">
+      <c r="B21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="18">
         <v>45609</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="21">
+        <v>44304</v>
+      </c>
+      <c r="I21" s="9">
+        <v>58</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="22">
+      <c r="B22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="18">
         <v>45610</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E22" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="9">
+        <v>8</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="22">
+      <c r="B23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="18">
         <v>45610</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E23" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="9">
+        <v>62</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="22">
+      <c r="B24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="18">
         <v>45610</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E24" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="9">
+        <v>3970</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="22">
+      <c r="B25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="18">
         <v>45610</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E25" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="9">
+        <v>3970</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="22">
+      <c r="B26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="18">
         <v>45611</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E26" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="21">
+        <v>45226</v>
+      </c>
+      <c r="I26" s="9">
+        <v>7370</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="22">
+      <c r="B27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="18">
         <v>45611</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E27" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="21">
+        <v>44406</v>
+      </c>
+      <c r="I27" s="9">
+        <v>123</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="22">
+      <c r="B28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="18">
         <v>45611</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E28" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="9">
+        <v>123</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="22">
+      <c r="B29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="18">
         <v>45611</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E29" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="21">
+        <v>44930</v>
+      </c>
+      <c r="I29" s="9">
+        <v>154</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="22">
+      <c r="B30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="18">
         <v>45612</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E30" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="9">
+        <v>47</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="22">
+      <c r="B31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="18">
         <v>45612</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="14"/>
+      <c r="E31" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="10">
+        <v>47</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5"/>
     <hyperlink ref="E7" r:id="rId6"/>
     <hyperlink ref="E8" r:id="rId7"/>
     <hyperlink ref="E9" r:id="rId8"/>
     <hyperlink ref="E10" r:id="rId9"/>
     <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId11"/>
     <hyperlink ref="E14" r:id="rId12"/>
     <hyperlink ref="E15" r:id="rId13"/>
     <hyperlink ref="E16" r:id="rId14"/>
+    <hyperlink ref="E12" r:id="rId15"/>
+    <hyperlink ref="E18" r:id="rId16"/>
+    <hyperlink ref="E19" r:id="rId17"/>
+    <hyperlink ref="E20" r:id="rId18"/>
+    <hyperlink ref="E21" r:id="rId19"/>
+    <hyperlink ref="E22" r:id="rId20"/>
+    <hyperlink ref="E23" r:id="rId21"/>
+    <hyperlink ref="E24" r:id="rId22"/>
+    <hyperlink ref="E25" r:id="rId23"/>
+    <hyperlink ref="E26" r:id="rId24"/>
+    <hyperlink ref="E27" r:id="rId25"/>
+    <hyperlink ref="E28" r:id="rId26"/>
+    <hyperlink ref="E29" r:id="rId27"/>
+    <hyperlink ref="E30" r:id="rId28"/>
+    <hyperlink ref="E31" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId30"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
--- a/01-Sesion/Thesaurus.xlsx
+++ b/01-Sesion/Thesaurus.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="114">
   <si>
     <t>N°</t>
   </si>
@@ -354,13 +354,34 @@
   <si>
     <t>Documentando la arquitectura de software
 Principios básicos</t>
+  </si>
+  <si>
+    <t>Arquitectura de software en el proceso de desarrollo ágil: una perspectiva basada en requisitos significantes para la arquitectura</t>
+  </si>
+  <si>
+    <t>https://n9.cl/53lyw</t>
+  </si>
+  <si>
+    <t>Selección de metodologías ágiles e integración de arquitecturas de software en el desarrollo de sistemas de información</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://n9.cl/4nnyzu </t>
+  </si>
+  <si>
+    <t>Revisión Sistemática de la Metodología Scrum para el Desarrollo de Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://n9.cl/prlg7 </t>
+  </si>
+  <si>
+    <t>Propuesta de una herramienta basada en la metodología Scrum para la gestión del desarrollo de software</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +441,11 @@
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -549,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,6 +647,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,6 +705,40 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -900,40 +969,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -1006,14 +1041,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:J31" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:J31"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="N°" dataDxfId="8"/>
-    <tableColumn id="2" name="Término o Frase" dataDxfId="7"/>
-    <tableColumn id="3" name="Fórmula" dataDxfId="6"/>
-    <tableColumn id="4" name="Fecha Busqueda" dataDxfId="5"/>
-    <tableColumn id="5" name="Url" dataDxfId="4" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="6" name="Base de Datos" dataDxfId="3"/>
-    <tableColumn id="7" name="Nombre del Artículo" dataDxfId="2"/>
-    <tableColumn id="11" name="Fecha Articulo" dataDxfId="9"/>
+    <tableColumn id="1" name="N°" dataDxfId="9"/>
+    <tableColumn id="2" name="Término o Frase" dataDxfId="8"/>
+    <tableColumn id="3" name="Fórmula" dataDxfId="7"/>
+    <tableColumn id="4" name="Fecha Busqueda" dataDxfId="6"/>
+    <tableColumn id="5" name="Url" dataDxfId="5" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="6" name="Base de Datos" dataDxfId="4"/>
+    <tableColumn id="7" name="Nombre del Artículo" dataDxfId="3"/>
+    <tableColumn id="11" name="Fecha Articulo" dataDxfId="2"/>
     <tableColumn id="8" name="Cant Artículos" dataDxfId="1"/>
     <tableColumn id="9" name="Tipo" dataDxfId="0"/>
   </tableColumns>
@@ -1284,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScale="25" zoomScaleNormal="70" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2291,6 +2326,134 @@
         <v>47</v>
       </c>
       <c r="J31" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="26">
+        <v>45615</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="25">
+        <v>2018</v>
+      </c>
+      <c r="I32" s="27">
+        <v>9360</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="26">
+        <v>45615</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" s="25">
+        <v>2017</v>
+      </c>
+      <c r="I33" s="27">
+        <v>9360</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="26">
+        <v>45615</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="25">
+        <v>2021</v>
+      </c>
+      <c r="I34" s="27">
+        <v>9360</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="26">
+        <v>45615</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="25">
+        <v>2019</v>
+      </c>
+      <c r="I35" s="27">
+        <v>9360</v>
+      </c>
+      <c r="J35" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2325,11 +2488,15 @@
     <hyperlink ref="E29" r:id="rId27"/>
     <hyperlink ref="E30" r:id="rId28"/>
     <hyperlink ref="E31" r:id="rId29"/>
+    <hyperlink ref="E32" r:id="rId30"/>
+    <hyperlink ref="E33" r:id="rId31"/>
+    <hyperlink ref="E34" r:id="rId32"/>
+    <hyperlink ref="E35" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId34"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>
--- a/01-Sesion/Thesaurus.xlsx
+++ b/01-Sesion/Thesaurus.xlsx
@@ -462,7 +462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -486,11 +486,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -500,11 +504,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -513,22 +534,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -537,24 +549,30 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -564,10 +582,27 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -575,29 +610,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,57 +627,82 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -666,6 +711,8 @@
   <dxfs count="14">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -673,7 +720,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Arial"/>
+        <name val="Arial Black"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -681,15 +728,17 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -709,6 +758,38 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -718,8 +799,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -752,8 +837,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -782,8 +871,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -809,9 +902,15 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -840,8 +939,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -868,9 +971,15 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -899,8 +1008,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -929,8 +1042,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -964,8 +1081,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -996,32 +1117,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial Black"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1038,19 +1133,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:J31" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:J31" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A1:J31"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="N°" dataDxfId="9"/>
-    <tableColumn id="2" name="Término o Frase" dataDxfId="8"/>
-    <tableColumn id="3" name="Fórmula" dataDxfId="7"/>
-    <tableColumn id="4" name="Fecha Busqueda" dataDxfId="6"/>
-    <tableColumn id="5" name="Url" dataDxfId="5" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="6" name="Base de Datos" dataDxfId="4"/>
-    <tableColumn id="7" name="Nombre del Artículo" dataDxfId="3"/>
-    <tableColumn id="11" name="Fecha Articulo" dataDxfId="2"/>
-    <tableColumn id="8" name="Cant Artículos" dataDxfId="1"/>
-    <tableColumn id="9" name="Tipo" dataDxfId="0"/>
+    <tableColumn id="1" name="N°" dataDxfId="10"/>
+    <tableColumn id="2" name="Término o Frase" dataDxfId="9"/>
+    <tableColumn id="3" name="Fórmula" dataDxfId="8"/>
+    <tableColumn id="4" name="Fecha Busqueda" dataDxfId="7"/>
+    <tableColumn id="5" name="Url" dataDxfId="6" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="6" name="Base de Datos" dataDxfId="5"/>
+    <tableColumn id="7" name="Nombre del Artículo" dataDxfId="4"/>
+    <tableColumn id="11" name="Fecha Articulo" dataDxfId="3"/>
+    <tableColumn id="8" name="Cant Artículos" dataDxfId="2"/>
+    <tableColumn id="9" name="Tipo" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1321,1115 +1416,1115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScale="25" zoomScaleNormal="70" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="AF56" sqref="AF56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="7" customWidth="1"/>
     <col min="9" max="9" width="30.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="35.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="10">
         <v>45605</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="10">
         <v>42947</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="5">
         <v>212</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="10">
         <v>45605</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="10">
         <v>36495</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="5">
         <v>11900</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="10">
         <v>45605</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="6">
         <v>2022</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="4">
         <v>10200</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="10">
         <v>45605</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="4">
         <v>594000</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="10">
         <v>45606</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="6">
         <v>2001</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="4">
         <v>29</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="J6" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="10">
         <v>45606</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="6">
         <v>2004</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="4">
         <v>1750</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="10">
         <v>45606</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="10">
         <v>2023</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="4">
         <v>20500</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="10">
         <v>45606</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="4">
         <v>9280</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="10">
         <v>45607</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="22" t="s">
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="4">
         <v>9280</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="10">
         <v>45607</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="6">
         <v>2018</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="4">
         <v>555</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="10">
         <v>45607</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="10">
         <v>41977</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="4">
         <v>1260</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="10">
         <v>45607</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="6">
         <v>2009</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="4">
         <v>555</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="10">
         <v>45608</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13" t="s">
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="6">
         <v>2023</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="4">
         <v>1260</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="10">
         <v>45608</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="6">
         <v>2016</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="4">
         <v>29</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="10">
         <v>45608</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="13" t="s">
+      <c r="F16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="10">
         <v>45146</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="4">
         <v>29</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="20">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="10">
         <v>45608</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="10">
         <v>43447</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="4">
         <v>11000</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="10">
         <v>45609</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="10">
         <v>38718</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="4">
         <v>11000</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="20">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="10">
         <v>45609</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="10">
         <v>44000</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="4">
         <v>33</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="20">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="10">
         <v>45609</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13" t="s">
+      <c r="F20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="10">
         <v>39814</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="4">
         <v>58</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="20">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="10">
         <v>45609</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="10">
         <v>44304</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="4">
         <v>58</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="20">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="10">
         <v>45610</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="4">
         <v>8</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="20">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="10">
         <v>45610</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="4">
         <v>62</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="20">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="10">
         <v>45610</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="4">
         <v>3970</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="20">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="10">
         <v>45610</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="4">
         <v>3970</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="20">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="10">
         <v>45611</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="13" t="s">
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="10">
         <v>45226</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="4">
         <v>7370</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="20">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="10">
         <v>45611</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="13" t="s">
+      <c r="F27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="10">
         <v>44406</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="4">
         <v>123</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="20">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="10">
         <v>45611</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="13" t="s">
+      <c r="F28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="4">
         <v>123</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="20">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="10">
         <v>45611</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="13" t="s">
+      <c r="F29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="10">
         <v>44930</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="4">
         <v>154</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="20">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="13" t="s">
+      <c r="B30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="10">
         <v>45612</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="13" t="s">
+      <c r="F30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="4">
         <v>47</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="J30" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="20">
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="10">
         <v>45612</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="12" t="s">
+      <c r="F31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="10">
+      <c r="H31" s="6"/>
+      <c r="I31" s="5">
         <v>47</v>
       </c>
-      <c r="J31" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="J31" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="12">
         <v>45615</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="25" t="s">
+      <c r="F32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="11">
         <v>2018</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="13">
         <v>9360</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="20">
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="12">
         <v>45615</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="25" t="s">
+      <c r="F33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="11">
         <v>2017</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I33" s="13">
         <v>9360</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="20">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="25" t="s">
+      <c r="B34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="12">
         <v>45615</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="25" t="s">
+      <c r="F34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="11">
         <v>2021</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I34" s="13">
         <v>9360</v>
       </c>
-      <c r="J34" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="J34" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="25" t="s">
@@ -2438,10 +2533,10 @@
       <c r="D35" s="26">
         <v>45615</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="28" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="25" t="s">
@@ -2450,10 +2545,10 @@
       <c r="H35" s="25">
         <v>2019</v>
       </c>
-      <c r="I35" s="27">
+      <c r="I35" s="29">
         <v>9360</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="30" t="s">
         <v>12</v>
       </c>
     </row>
